--- a/Excel/Book1.xlsx
+++ b/Excel/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Interface\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5152E7-A758-46EE-95CB-5D39C7D58485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D124EFCD-AE18-40AA-87C6-1DAAA6266847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{A9249A5D-AA67-4D74-80E7-F6266E845EED}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11325" xr2:uid="{A9249A5D-AA67-4D74-80E7-F6266E845EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
-    <t>ProductId</t>
-  </si>
-  <si>
     <t>ProductName</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>phini hạnh nhân</t>
+  </si>
+  <si>
+    <t>ProductID</t>
   </si>
 </sst>
 </file>
@@ -430,199 +430,199 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>99999</v>
       </c>
       <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>8139</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>99123</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>68211</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>67773</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>67335</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>66897</v>
       </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>66459</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>66021</v>
       </c>
       <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>65583</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
